--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309868.1749045964</v>
+        <v>307346.6703140775</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.5975084884618</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>347.8471384231637</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>62.15488195190107</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>206.3988473634613</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>143.5619377276759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>207.8485542757577</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>326.3705981777055</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>252.5239959908885</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>152.9792853886516</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>135.5716424869392</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>56.17639526046347</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>108.338889532744</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>97.07162708516627</v>
       </c>
       <c r="V10" t="n">
-        <v>169.8495742471488</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>64.91921363453612</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>14.75529838241474</v>
+        <v>146.4339626465701</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>38.2187527515822</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
-        <v>4.524736141320318e-12</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>41.55695577160743</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>104.4262124629284</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>161.6533746177294</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>57.02356321678085</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>20.13408744447708</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>80.10107535865347</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>170.7054634963596</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>226.9652268912045</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.9025715636457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.969728759938</v>
+        <v>1171.859135846345</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.969728759938</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D2" t="n">
-        <v>759.7040301531877</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549434</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,25 +4328,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2374.857411884301</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2374.857411884301</v>
+        <v>2229.156436721109</v>
       </c>
       <c r="V2" t="n">
-        <v>2043.79452454073</v>
+        <v>1898.093549377539</v>
       </c>
       <c r="W2" t="n">
-        <v>2043.79452454073</v>
+        <v>1545.324894107425</v>
       </c>
       <c r="X2" t="n">
-        <v>1670.328766279651</v>
+        <v>1171.859135846345</v>
       </c>
       <c r="Y2" t="n">
-        <v>1280.189434303839</v>
+        <v>1171.859135846345</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1548.937911402421</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>1380.001728474514</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>1229.885089062179</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1229.885089062179</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2142.732099754752</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2142.732099754752</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1997.720041443969</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W4" t="n">
-        <v>1997.720041443969</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X4" t="n">
-        <v>1769.730490545951</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="Y4" t="n">
-        <v>1548.937911402421</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1585.174086820818</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="C5" t="n">
-        <v>1585.174086820818</v>
+        <v>1486.466204330959</v>
       </c>
       <c r="D5" t="n">
-        <v>1585.174086820818</v>
+        <v>1486.466204330959</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.385834222573</v>
+        <v>1100.677951732715</v>
       </c>
       <c r="F5" t="n">
-        <v>788.3999294329658</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>372.6951791572546</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796629</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820818</v>
+        <v>1855.428721271371</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.0729169938204</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478913</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>504.0139700109307</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>367.0729169938204</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.0729169938204</v>
+        <v>672.7372331862466</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.942324366272</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.542164430393</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1962.542164430393</v>
+        <v>2062.330773118629</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>626.9042569062804</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
         <v>310.0549803959803</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1325.959442671498</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.859839271391</v>
+        <v>1325.959442671498</v>
       </c>
       <c r="W10" t="n">
-        <v>955.4426692344304</v>
+        <v>1036.542272634537</v>
       </c>
       <c r="X10" t="n">
-        <v>955.4426692344304</v>
+        <v>808.5527217365201</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>808.5527217365201</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5021,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>1016.580456911441</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>847.644273983534</v>
       </c>
       <c r="D16" t="n">
-        <v>564.5188827892232</v>
+        <v>697.5276345711983</v>
       </c>
       <c r="E16" t="n">
         <v>549.6145409888043</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1936.428221820189</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783228</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1198.228921741681</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.777415831141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032341</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908984</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2404.986360578637</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.384895601578</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945776</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739889</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702928</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804911</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613807</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1814.174843522903</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1559.490355317016</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7557007032921</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8426071208989</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>337.9526596229886</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8178837532264</v>
+        <v>808.8888553856807</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>639.9526724577738</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>489.8360330454381</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>341.9229394630449</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>341.9229394630449</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>174.7268401779249</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797687</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910803</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570812</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235159</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.632784380133</v>
+        <v>2044.5067842581</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.557557724331</v>
+        <v>1755.431557602298</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.873069518444</v>
+        <v>1500.747069396411</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.455899481483</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X31" t="n">
-        <v>963.4663485834661</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4663485834661</v>
+        <v>990.5373202159204</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>632.7243904253734</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1748.203275569898</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y34" t="n">
-        <v>814.3728552556131</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>294.8344935184735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>154.0169020165191</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>222.1363331750187</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>17.42575334784387</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>152.4862366927521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.6786642641544</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>213.9188905722458</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.4693302300372</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>112.9792378643599</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>124.5310997715148</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.223257881847</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.3900508477918</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>60.19363748757041</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.69998683092868</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>59.21924749803964</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600924</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>987287.6527949477</v>
+        <v>987287.652794948</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1057829.795107181</v>
+        <v>1057829.79510718</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1057829.795107181</v>
+        <v>1057829.79510718</v>
       </c>
     </row>
     <row r="14">
@@ -26320,22 +26320,22 @@
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605027</v>
@@ -26344,13 +26344,13 @@
         <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605029</v>
       </c>
-      <c r="N2" t="n">
-        <v>363215.9698605028</v>
-      </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605028</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551188</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.38997943739</v>
+        <v>94171.38997943744</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
@@ -26439,22 +26439,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756523</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756595</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756526</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-965942.9594932987</v>
+        <v>-966129.3528818382</v>
       </c>
       <c r="C6" t="n">
         <v>139804.75030698</v>
       </c>
       <c r="D6" t="n">
-        <v>-19616.51969091161</v>
+        <v>-19616.51969091129</v>
       </c>
       <c r="E6" t="n">
-        <v>-72656.22212751617</v>
+        <v>-72690.96005295175</v>
       </c>
       <c r="F6" t="n">
-        <v>252756.239679839</v>
+        <v>252721.5017544033</v>
       </c>
       <c r="G6" t="n">
-        <v>252756.239679839</v>
+        <v>252721.5017544032</v>
       </c>
       <c r="H6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544031</v>
       </c>
       <c r="I6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544035</v>
       </c>
       <c r="J6" t="n">
-        <v>85151.06186985651</v>
+        <v>85116.32394442061</v>
       </c>
       <c r="K6" t="n">
-        <v>252756.239679839</v>
+        <v>252721.5017544034</v>
       </c>
       <c r="L6" t="n">
-        <v>204462.2696716481</v>
+        <v>204427.5317462125</v>
       </c>
       <c r="M6" t="n">
-        <v>167701.2117443274</v>
+        <v>167666.4738188913</v>
       </c>
       <c r="N6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544035</v>
       </c>
       <c r="O6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544036</v>
       </c>
       <c r="P6" t="n">
-        <v>252756.2396798391</v>
+        <v>252721.5017544033</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.005947602801767e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>144.5033030283327</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>44.64640276500069</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>108.5757055961521</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17.86110111327943</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>80.50544756400592</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>48.49455657151685</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>26.85269479328565</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>90.13801290209798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>326.5574464030171</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>261.392211145725</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>189.1402111204466</v>
       </c>
       <c r="V10" t="n">
-        <v>82.28806907667925</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>592.5148541563236</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>270.4976243473736</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191303</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191256</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
